--- a/src/storage/app/excel-exporter/templates/employee_list_template.xlsx
+++ b/src/storage/app/excel-exporter/templates/employee_list_template.xlsx
@@ -345,7 +345,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,6 +493,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K5:K6" type="list">
+      <formula1>"EMPLOYEE,TEACHER"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
